--- a/RedCap_SubjectsInfo/sglt2.sn.all.subject.info.xlsx
+++ b/RedCap_SubjectsInfo/sglt2.sn.all.subject.info.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="76">
   <si>
     <t>id</t>
   </si>
@@ -20,7 +20,7 @@
     <t>Record ID: 766-</t>
   </si>
   <si>
-    <t>subject_id</t>
+    <t>patient_id</t>
   </si>
   <si>
     <t>Event Name</t>
@@ -65,7 +65,7 @@
     <t>Age_Group</t>
   </si>
   <si>
-    <t>Diabetes</t>
+    <t>dbc12_overwt</t>
   </si>
   <si>
     <t>Group Assignment:</t>
@@ -174,66 +174,6 @@
   </si>
   <si>
     <t>Yes</t>
-  </si>
-  <si>
-    <t>31.49</t>
-  </si>
-  <si>
-    <t>36.69</t>
-  </si>
-  <si>
-    <t>34.64</t>
-  </si>
-  <si>
-    <t>35.64</t>
-  </si>
-  <si>
-    <t>36.409999999999997</t>
-  </si>
-  <si>
-    <t>36.75</t>
-  </si>
-  <si>
-    <t>36.770000000000003</t>
-  </si>
-  <si>
-    <t>39.86</t>
-  </si>
-  <si>
-    <t>39.840000000000003</t>
-  </si>
-  <si>
-    <t>35.630000000000003</t>
-  </si>
-  <si>
-    <t>35.06</t>
-  </si>
-  <si>
-    <t>31.66</t>
-  </si>
-  <si>
-    <t>31.45</t>
-  </si>
-  <si>
-    <t>32.78</t>
-  </si>
-  <si>
-    <t>31.19</t>
-  </si>
-  <si>
-    <t>32.89</t>
-  </si>
-  <si>
-    <t>33.770000000000003</t>
-  </si>
-  <si>
-    <t>35.75</t>
-  </si>
-  <si>
-    <t>33.22</t>
-  </si>
-  <si>
-    <t>33.86</t>
   </si>
   <si>
     <t>Obese</t>
@@ -431,11 +371,11 @@
       <c r="G2" t="n">
         <v>158.6</v>
       </c>
-      <c r="H2" t="s">
-        <v>54</v>
+      <c r="H2" t="n">
+        <v>31.49</v>
       </c>
       <c r="I2" t="s">
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="J2" t="n">
         <v>96.0</v>
@@ -444,28 +384,28 @@
         <v>5.9</v>
       </c>
       <c r="L2" t="s">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="M2" t="s">
-        <v>87</v>
+        <v>67</v>
       </c>
       <c r="N2" t="s">
-        <v>88</v>
+        <v>68</v>
       </c>
       <c r="O2" t="s">
-        <v>89</v>
+        <v>69</v>
       </c>
       <c r="P2" t="n">
         <v>67.0</v>
       </c>
       <c r="Q2" t="s">
-        <v>91</v>
+        <v>71</v>
       </c>
       <c r="R2" t="s">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="S2" t="s">
-        <v>94</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3">
@@ -490,11 +430,11 @@
       <c r="G3" t="n">
         <v>200.6</v>
       </c>
-      <c r="H3" t="s">
-        <v>55</v>
+      <c r="H3" t="n">
+        <v>36.69</v>
       </c>
       <c r="I3" t="s">
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="J3" t="n">
         <v>91.0</v>
@@ -503,28 +443,28 @@
         <v>5.6</v>
       </c>
       <c r="L3" t="s">
-        <v>76</v>
+        <v>56</v>
       </c>
       <c r="M3" t="s">
-        <v>87</v>
+        <v>67</v>
       </c>
       <c r="N3" t="s">
-        <v>88</v>
+        <v>68</v>
       </c>
       <c r="O3" t="s">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="P3" t="n">
         <v>63.0</v>
       </c>
       <c r="Q3" t="s">
-        <v>92</v>
+        <v>72</v>
       </c>
       <c r="R3" t="s">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="S3" t="s">
-        <v>94</v>
+        <v>74</v>
       </c>
     </row>
     <row r="4">
@@ -549,11 +489,11 @@
       <c r="G4" t="n">
         <v>194.0</v>
       </c>
-      <c r="H4" t="s">
-        <v>56</v>
+      <c r="H4" t="n">
+        <v>34.64</v>
       </c>
       <c r="I4" t="s">
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="J4" t="n">
         <v>100.0</v>
@@ -562,28 +502,28 @@
         <v>5.9</v>
       </c>
       <c r="L4" t="s">
-        <v>76</v>
+        <v>56</v>
       </c>
       <c r="M4" t="s">
-        <v>87</v>
+        <v>67</v>
       </c>
       <c r="N4" t="s">
-        <v>88</v>
+        <v>68</v>
       </c>
       <c r="O4" t="s">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="P4" t="n">
         <v>63.0</v>
       </c>
       <c r="Q4" t="s">
-        <v>92</v>
+        <v>72</v>
       </c>
       <c r="R4" t="s">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="S4" t="s">
-        <v>94</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5">
@@ -608,11 +548,11 @@
       <c r="G5" t="n">
         <v>241.4</v>
       </c>
-      <c r="H5" t="s">
-        <v>57</v>
+      <c r="H5" t="n">
+        <v>35.64</v>
       </c>
       <c r="I5" t="s">
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="J5" t="n">
         <v>104.0</v>
@@ -621,28 +561,28 @@
         <v>6.0</v>
       </c>
       <c r="L5" t="s">
-        <v>77</v>
+        <v>57</v>
       </c>
       <c r="M5" t="s">
-        <v>87</v>
+        <v>67</v>
       </c>
       <c r="N5" t="s">
-        <v>88</v>
+        <v>68</v>
       </c>
       <c r="O5" t="s">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="P5" t="n">
         <v>67.0</v>
       </c>
       <c r="Q5" t="s">
-        <v>91</v>
+        <v>71</v>
       </c>
       <c r="R5" t="s">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="S5" t="s">
-        <v>95</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6">
@@ -667,11 +607,11 @@
       <c r="G6" t="n">
         <v>246.6</v>
       </c>
-      <c r="H6" t="s">
-        <v>58</v>
+      <c r="H6" t="n">
+        <v>36.41</v>
       </c>
       <c r="I6" t="s">
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="J6" t="n">
         <v>114.0</v>
@@ -680,28 +620,28 @@
         <v>5.8</v>
       </c>
       <c r="L6" t="s">
-        <v>77</v>
+        <v>57</v>
       </c>
       <c r="M6" t="s">
-        <v>87</v>
+        <v>67</v>
       </c>
       <c r="N6" t="s">
-        <v>88</v>
+        <v>68</v>
       </c>
       <c r="O6" t="s">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="P6" t="n">
         <v>67.0</v>
       </c>
       <c r="Q6" t="s">
-        <v>91</v>
+        <v>71</v>
       </c>
       <c r="R6" t="s">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="S6" t="s">
-        <v>95</v>
+        <v>75</v>
       </c>
     </row>
     <row r="7">
@@ -726,11 +666,11 @@
       <c r="G7" t="n">
         <v>222.2</v>
       </c>
-      <c r="H7" t="s">
-        <v>59</v>
+      <c r="H7" t="n">
+        <v>36.75</v>
       </c>
       <c r="I7" t="s">
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="J7" t="n">
         <v>94.0</v>
@@ -739,28 +679,28 @@
         <v>6.1</v>
       </c>
       <c r="L7" t="s">
-        <v>78</v>
+        <v>58</v>
       </c>
       <c r="M7" t="s">
-        <v>87</v>
+        <v>67</v>
       </c>
       <c r="N7" t="s">
-        <v>88</v>
+        <v>68</v>
       </c>
       <c r="O7" t="s">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="P7" t="n">
         <v>76.0</v>
       </c>
       <c r="Q7" t="s">
-        <v>91</v>
+        <v>71</v>
       </c>
       <c r="R7" t="s">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="S7" t="s">
-        <v>94</v>
+        <v>74</v>
       </c>
     </row>
     <row r="8">
@@ -785,11 +725,11 @@
       <c r="G8" t="n">
         <v>223.7</v>
       </c>
-      <c r="H8" t="s">
-        <v>60</v>
+      <c r="H8" t="n">
+        <v>36.77</v>
       </c>
       <c r="I8" t="s">
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="J8" t="n">
         <v>99.0</v>
@@ -798,28 +738,28 @@
         <v>6.0</v>
       </c>
       <c r="L8" t="s">
-        <v>78</v>
+        <v>58</v>
       </c>
       <c r="M8" t="s">
-        <v>87</v>
+        <v>67</v>
       </c>
       <c r="N8" t="s">
-        <v>88</v>
+        <v>68</v>
       </c>
       <c r="O8" t="s">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="P8" t="n">
         <v>76.0</v>
       </c>
       <c r="Q8" t="s">
-        <v>91</v>
+        <v>71</v>
       </c>
       <c r="R8" t="s">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="S8" t="s">
-        <v>94</v>
+        <v>74</v>
       </c>
     </row>
     <row r="9">
@@ -844,11 +784,11 @@
       <c r="G9" t="n">
         <v>262.2</v>
       </c>
-      <c r="H9" t="s">
-        <v>61</v>
+      <c r="H9" t="n">
+        <v>39.86</v>
       </c>
       <c r="I9" t="s">
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="J9" t="n">
         <v>118.0</v>
@@ -857,28 +797,28 @@
         <v>6.1</v>
       </c>
       <c r="L9" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="M9" t="s">
-        <v>87</v>
+        <v>67</v>
       </c>
       <c r="N9" t="s">
-        <v>88</v>
+        <v>68</v>
       </c>
       <c r="O9" t="s">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="P9" t="n">
         <v>73.0</v>
       </c>
       <c r="Q9" t="s">
-        <v>91</v>
+        <v>71</v>
       </c>
       <c r="R9" t="s">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="S9" t="s">
-        <v>94</v>
+        <v>74</v>
       </c>
     </row>
     <row r="10">
@@ -903,11 +843,11 @@
       <c r="G10" t="n">
         <v>264.0</v>
       </c>
-      <c r="H10" t="s">
-        <v>62</v>
+      <c r="H10" t="n">
+        <v>39.84</v>
       </c>
       <c r="I10" t="s">
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="J10" t="n">
         <v>112.0</v>
@@ -916,28 +856,28 @@
         <v>6.1</v>
       </c>
       <c r="L10" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="M10" t="s">
-        <v>87</v>
+        <v>67</v>
       </c>
       <c r="N10" t="s">
-        <v>88</v>
+        <v>68</v>
       </c>
       <c r="O10" t="s">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="P10" t="n">
         <v>73.0</v>
       </c>
       <c r="Q10" t="s">
-        <v>91</v>
+        <v>71</v>
       </c>
       <c r="R10" t="s">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="S10" t="s">
-        <v>94</v>
+        <v>74</v>
       </c>
     </row>
     <row r="11">
@@ -962,11 +902,11 @@
       <c r="G11" t="n">
         <v>237.8</v>
       </c>
-      <c r="H11" t="s">
-        <v>63</v>
+      <c r="H11" t="n">
+        <v>35.63</v>
       </c>
       <c r="I11" t="s">
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="J11" t="n">
         <v>95.0</v>
@@ -975,28 +915,28 @@
         <v>5.8</v>
       </c>
       <c r="L11" t="s">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="M11" t="s">
-        <v>87</v>
+        <v>67</v>
       </c>
       <c r="N11" t="s">
-        <v>88</v>
+        <v>68</v>
       </c>
       <c r="O11" t="s">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="P11" t="n">
         <v>68.0</v>
       </c>
       <c r="Q11" t="s">
-        <v>91</v>
+        <v>71</v>
       </c>
       <c r="R11" t="s">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="S11" t="s">
-        <v>94</v>
+        <v>74</v>
       </c>
     </row>
     <row r="12">
@@ -1021,11 +961,11 @@
       <c r="G12" t="n">
         <v>234.0</v>
       </c>
-      <c r="H12" t="s">
-        <v>64</v>
+      <c r="H12" t="n">
+        <v>35.06</v>
       </c>
       <c r="I12" t="s">
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="J12" t="n">
         <v>102.0</v>
@@ -1034,28 +974,28 @@
         <v>5.7</v>
       </c>
       <c r="L12" t="s">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="M12" t="s">
-        <v>87</v>
+        <v>67</v>
       </c>
       <c r="N12" t="s">
-        <v>88</v>
+        <v>68</v>
       </c>
       <c r="O12" t="s">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="P12" t="n">
         <v>68.0</v>
       </c>
       <c r="Q12" t="s">
-        <v>91</v>
+        <v>71</v>
       </c>
       <c r="R12" t="s">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="S12" t="s">
-        <v>94</v>
+        <v>74</v>
       </c>
     </row>
     <row r="13">
@@ -1080,11 +1020,11 @@
       <c r="G13" t="n">
         <v>183.0</v>
       </c>
-      <c r="H13" t="s">
-        <v>65</v>
+      <c r="H13" t="n">
+        <v>31.66</v>
       </c>
       <c r="I13" t="s">
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="J13" t="n">
         <v>93.0</v>
@@ -1093,28 +1033,28 @@
         <v>6.0</v>
       </c>
       <c r="L13" t="s">
-        <v>81</v>
+        <v>61</v>
       </c>
       <c r="M13" t="s">
-        <v>87</v>
+        <v>67</v>
       </c>
       <c r="N13" t="s">
-        <v>88</v>
+        <v>68</v>
       </c>
       <c r="O13" t="s">
-        <v>89</v>
+        <v>69</v>
       </c>
       <c r="P13" t="n">
         <v>68.0</v>
       </c>
       <c r="Q13" t="s">
-        <v>91</v>
+        <v>71</v>
       </c>
       <c r="R13" t="s">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="S13" t="s">
-        <v>95</v>
+        <v>75</v>
       </c>
     </row>
     <row r="14">
@@ -1139,11 +1079,11 @@
       <c r="G14" t="n">
         <v>181.8</v>
       </c>
-      <c r="H14" t="s">
-        <v>66</v>
+      <c r="H14" t="n">
+        <v>31.45</v>
       </c>
       <c r="I14" t="s">
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="J14" t="n">
         <v>96.0</v>
@@ -1152,28 +1092,28 @@
         <v>5.8</v>
       </c>
       <c r="L14" t="s">
-        <v>81</v>
+        <v>61</v>
       </c>
       <c r="M14" t="s">
-        <v>87</v>
+        <v>67</v>
       </c>
       <c r="N14" t="s">
-        <v>88</v>
+        <v>68</v>
       </c>
       <c r="O14" t="s">
-        <v>89</v>
+        <v>69</v>
       </c>
       <c r="P14" t="n">
         <v>68.0</v>
       </c>
       <c r="Q14" t="s">
-        <v>91</v>
+        <v>71</v>
       </c>
       <c r="R14" t="s">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="S14" t="s">
-        <v>95</v>
+        <v>75</v>
       </c>
     </row>
     <row r="15">
@@ -1198,11 +1138,11 @@
       <c r="G15" t="n">
         <v>197.0</v>
       </c>
-      <c r="H15" t="s">
-        <v>67</v>
+      <c r="H15" t="n">
+        <v>32.78</v>
       </c>
       <c r="I15" t="s">
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="J15" t="n">
         <v>89.0</v>
@@ -1211,28 +1151,28 @@
         <v>5.9</v>
       </c>
       <c r="L15" t="s">
-        <v>82</v>
+        <v>62</v>
       </c>
       <c r="M15" t="s">
-        <v>87</v>
+        <v>67</v>
       </c>
       <c r="N15" t="s">
-        <v>88</v>
+        <v>68</v>
       </c>
       <c r="O15" t="s">
-        <v>89</v>
+        <v>69</v>
       </c>
       <c r="P15" t="n">
         <v>77.0</v>
       </c>
       <c r="Q15" t="s">
-        <v>91</v>
+        <v>71</v>
       </c>
       <c r="R15" t="s">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="S15" t="s">
-        <v>94</v>
+        <v>74</v>
       </c>
     </row>
     <row r="16">
@@ -1257,11 +1197,11 @@
       <c r="G16" t="n">
         <v>196.2</v>
       </c>
-      <c r="H16" t="s">
-        <v>68</v>
+      <c r="H16" t="n">
+        <v>31.19</v>
       </c>
       <c r="I16" t="s">
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="J16" t="n">
         <v>112.0</v>
@@ -1270,28 +1210,28 @@
         <v>5.9</v>
       </c>
       <c r="L16" t="s">
-        <v>82</v>
+        <v>62</v>
       </c>
       <c r="M16" t="s">
-        <v>87</v>
+        <v>67</v>
       </c>
       <c r="N16" t="s">
-        <v>88</v>
+        <v>68</v>
       </c>
       <c r="O16" t="s">
-        <v>89</v>
+        <v>69</v>
       </c>
       <c r="P16" t="n">
         <v>77.0</v>
       </c>
       <c r="Q16" t="s">
-        <v>91</v>
+        <v>71</v>
       </c>
       <c r="R16" t="s">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="S16" t="s">
-        <v>94</v>
+        <v>74</v>
       </c>
     </row>
     <row r="17">
@@ -1316,11 +1256,11 @@
       <c r="G17" t="n">
         <v>226.0</v>
       </c>
-      <c r="H17" t="s">
-        <v>69</v>
+      <c r="H17" t="n">
+        <v>32.89</v>
       </c>
       <c r="I17" t="s">
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="J17" t="n">
         <v>90.0</v>
@@ -1329,28 +1269,28 @@
         <v>5.9</v>
       </c>
       <c r="L17" t="s">
-        <v>83</v>
+        <v>63</v>
       </c>
       <c r="M17" t="s">
-        <v>87</v>
+        <v>67</v>
       </c>
       <c r="N17" t="s">
-        <v>88</v>
+        <v>68</v>
       </c>
       <c r="O17" t="s">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="P17" t="n">
         <v>66.0</v>
       </c>
       <c r="Q17" t="s">
-        <v>91</v>
+        <v>71</v>
       </c>
       <c r="R17" t="s">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="S17" t="s">
-        <v>95</v>
+        <v>75</v>
       </c>
     </row>
     <row r="18">
@@ -1375,11 +1315,11 @@
       <c r="G18" t="n">
         <v>235.4</v>
       </c>
-      <c r="H18" t="s">
-        <v>70</v>
+      <c r="H18" t="n">
+        <v>33.77</v>
       </c>
       <c r="I18" t="s">
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="J18" t="n">
         <v>104.0</v>
@@ -1388,28 +1328,28 @@
         <v>6.0</v>
       </c>
       <c r="L18" t="s">
-        <v>83</v>
+        <v>63</v>
       </c>
       <c r="M18" t="s">
-        <v>87</v>
+        <v>67</v>
       </c>
       <c r="N18" t="s">
-        <v>88</v>
+        <v>68</v>
       </c>
       <c r="O18" t="s">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="P18" t="n">
         <v>66.0</v>
       </c>
       <c r="Q18" t="s">
-        <v>91</v>
+        <v>71</v>
       </c>
       <c r="R18" t="s">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="S18" t="s">
-        <v>95</v>
+        <v>75</v>
       </c>
     </row>
     <row r="19">
@@ -1434,11 +1374,11 @@
       <c r="G19" t="n">
         <v>271.0</v>
       </c>
-      <c r="H19" t="s">
-        <v>71</v>
+      <c r="H19" t="n">
+        <v>35.75</v>
       </c>
       <c r="I19" t="s">
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="J19" t="n">
         <v>128.0</v>
@@ -1447,28 +1387,28 @@
         <v>5.7</v>
       </c>
       <c r="L19" t="s">
-        <v>84</v>
+        <v>64</v>
       </c>
       <c r="M19" t="s">
-        <v>87</v>
+        <v>67</v>
       </c>
       <c r="N19" t="s">
-        <v>88</v>
+        <v>68</v>
       </c>
       <c r="O19" t="s">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="P19" t="n">
         <v>60.0</v>
       </c>
       <c r="Q19" t="s">
-        <v>92</v>
+        <v>72</v>
       </c>
       <c r="R19" t="s">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="S19" t="s">
-        <v>94</v>
+        <v>74</v>
       </c>
     </row>
     <row r="20">
@@ -1493,11 +1433,11 @@
       <c r="G20" t="n">
         <v>218.5</v>
       </c>
-      <c r="H20" t="s">
-        <v>72</v>
+      <c r="H20" t="n">
+        <v>33.22</v>
       </c>
       <c r="I20" t="s">
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="J20" t="n">
         <v>116.0</v>
@@ -1506,28 +1446,28 @@
         <v>6.1</v>
       </c>
       <c r="L20" t="s">
-        <v>85</v>
+        <v>65</v>
       </c>
       <c r="M20" t="s">
-        <v>87</v>
+        <v>67</v>
       </c>
       <c r="N20" t="s">
-        <v>88</v>
+        <v>68</v>
       </c>
       <c r="O20" t="s">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="P20" t="n">
         <v>72.0</v>
       </c>
       <c r="Q20" t="s">
-        <v>91</v>
+        <v>71</v>
       </c>
       <c r="R20" t="s">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="S20" t="s">
-        <v>95</v>
+        <v>75</v>
       </c>
     </row>
     <row r="21">
@@ -1552,11 +1492,11 @@
       <c r="G21" t="n">
         <v>197.3</v>
       </c>
-      <c r="H21" t="s">
-        <v>73</v>
+      <c r="H21" t="n">
+        <v>33.86</v>
       </c>
       <c r="I21" t="s">
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="J21" t="n">
         <v>107.0</v>
@@ -1565,28 +1505,28 @@
         <v>5.8</v>
       </c>
       <c r="L21" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="M21" t="s">
-        <v>87</v>
+        <v>67</v>
       </c>
       <c r="N21" t="s">
-        <v>88</v>
+        <v>68</v>
       </c>
       <c r="O21" t="s">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="P21" t="n">
         <v>58.0</v>
       </c>
       <c r="Q21" t="s">
-        <v>92</v>
+        <v>72</v>
       </c>
       <c r="R21" t="s">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="S21" t="s">
-        <v>95</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>

--- a/RedCap_SubjectsInfo/sglt2.sn.all.subject.info.xlsx
+++ b/RedCap_SubjectsInfo/sglt2.sn.all.subject.info.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="79">
   <si>
     <t>id</t>
   </si>
@@ -68,7 +68,7 @@
     <t>dbc12_overwt</t>
   </si>
   <si>
-    <t>Group Assignment:</t>
+    <t>Group</t>
   </si>
   <si>
     <t>76615_V5</t>
@@ -122,12 +122,21 @@
     <t>76660_V5</t>
   </si>
   <si>
+    <t>76661_V11</t>
+  </si>
+  <si>
     <t>76661_V5</t>
   </si>
   <si>
+    <t>76662_V11</t>
+  </si>
+  <si>
     <t>76662_V5</t>
   </si>
   <si>
+    <t>76664_V11</t>
+  </si>
+  <si>
     <t>76664_V5</t>
   </si>
   <si>
@@ -236,10 +245,10 @@
     <t>No</t>
   </si>
   <si>
-    <t>Drug - dapagliflozin</t>
-  </si>
-  <si>
-    <t>Nutritional counseling</t>
+    <t>D</t>
+  </si>
+  <si>
+    <t>C</t>
   </si>
 </sst>
 </file>
@@ -357,13 +366,13 @@
         <v>15.0</v>
       </c>
       <c r="C2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="E2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="F2" t="n">
         <v>59.5</v>
@@ -375,7 +384,7 @@
         <v>31.49</v>
       </c>
       <c r="I2" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="J2" t="n">
         <v>96.0</v>
@@ -384,28 +393,28 @@
         <v>5.9</v>
       </c>
       <c r="L2" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="M2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="N2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="O2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P2" t="n">
         <v>67.0</v>
       </c>
       <c r="Q2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="R2" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="S2" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
     </row>
     <row r="3">
@@ -416,13 +425,13 @@
         <v>32.0</v>
       </c>
       <c r="C3" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="D3" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="E3" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="F3" t="n">
         <v>62.0</v>
@@ -434,7 +443,7 @@
         <v>36.69</v>
       </c>
       <c r="I3" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="J3" t="n">
         <v>91.0</v>
@@ -443,28 +452,28 @@
         <v>5.6</v>
       </c>
       <c r="L3" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="M3" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="N3" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="O3" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="P3" t="n">
         <v>63.0</v>
       </c>
       <c r="Q3" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="R3" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="S3" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
     </row>
     <row r="4">
@@ -475,13 +484,13 @@
         <v>32.0</v>
       </c>
       <c r="C4" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="D4" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="E4" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="F4" t="n">
         <v>62.75</v>
@@ -493,7 +502,7 @@
         <v>34.64</v>
       </c>
       <c r="I4" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="J4" t="n">
         <v>100.0</v>
@@ -502,28 +511,28 @@
         <v>5.9</v>
       </c>
       <c r="L4" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="M4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="N4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="O4" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="P4" t="n">
         <v>63.0</v>
       </c>
       <c r="Q4" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="R4" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="S4" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5">
@@ -534,13 +543,13 @@
         <v>38.0</v>
       </c>
       <c r="C5" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D5" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="E5" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="F5" t="n">
         <v>69.0</v>
@@ -552,7 +561,7 @@
         <v>35.64</v>
       </c>
       <c r="I5" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="J5" t="n">
         <v>104.0</v>
@@ -561,28 +570,28 @@
         <v>6.0</v>
       </c>
       <c r="L5" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="M5" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="N5" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="O5" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="P5" t="n">
         <v>67.0</v>
       </c>
       <c r="Q5" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="R5" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="S5" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6">
@@ -593,13 +602,13 @@
         <v>38.0</v>
       </c>
       <c r="C6" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D6" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="E6" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="F6" t="n">
         <v>69.0</v>
@@ -611,7 +620,7 @@
         <v>36.41</v>
       </c>
       <c r="I6" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="J6" t="n">
         <v>114.0</v>
@@ -620,28 +629,28 @@
         <v>5.8</v>
       </c>
       <c r="L6" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="M6" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="N6" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="O6" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="P6" t="n">
         <v>67.0</v>
       </c>
       <c r="Q6" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="R6" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="S6" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
     </row>
     <row r="7">
@@ -652,13 +661,13 @@
         <v>43.0</v>
       </c>
       <c r="C7" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="D7" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="E7" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="F7" t="n">
         <v>65.2</v>
@@ -670,7 +679,7 @@
         <v>36.75</v>
       </c>
       <c r="I7" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="J7" t="n">
         <v>94.0</v>
@@ -679,28 +688,28 @@
         <v>6.1</v>
       </c>
       <c r="L7" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="M7" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="N7" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="O7" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="P7" t="n">
         <v>76.0</v>
       </c>
       <c r="Q7" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="R7" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="S7" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
     </row>
     <row r="8">
@@ -711,13 +720,13 @@
         <v>43.0</v>
       </c>
       <c r="C8" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="D8" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="E8" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="F8" t="n">
         <v>65.4</v>
@@ -729,7 +738,7 @@
         <v>36.77</v>
       </c>
       <c r="I8" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="J8" t="n">
         <v>99.0</v>
@@ -738,28 +747,28 @@
         <v>6.0</v>
       </c>
       <c r="L8" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="M8" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="N8" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="O8" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="P8" t="n">
         <v>76.0</v>
       </c>
       <c r="Q8" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="R8" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="S8" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
     </row>
     <row r="9">
@@ -770,13 +779,13 @@
         <v>47.0</v>
       </c>
       <c r="C9" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D9" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="E9" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="F9" t="n">
         <v>68.0</v>
@@ -788,7 +797,7 @@
         <v>39.86</v>
       </c>
       <c r="I9" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="J9" t="n">
         <v>118.0</v>
@@ -797,28 +806,28 @@
         <v>6.1</v>
       </c>
       <c r="L9" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="M9" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="N9" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="O9" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="P9" t="n">
         <v>73.0</v>
       </c>
       <c r="Q9" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="R9" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="S9" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
     </row>
     <row r="10">
@@ -829,13 +838,13 @@
         <v>47.0</v>
       </c>
       <c r="C10" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D10" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="E10" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="F10" t="n">
         <v>68.25</v>
@@ -847,7 +856,7 @@
         <v>39.84</v>
       </c>
       <c r="I10" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="J10" t="n">
         <v>112.0</v>
@@ -856,28 +865,28 @@
         <v>6.1</v>
       </c>
       <c r="L10" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="M10" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="N10" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="O10" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="P10" t="n">
         <v>73.0</v>
       </c>
       <c r="Q10" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="R10" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="S10" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
     </row>
     <row r="11">
@@ -888,13 +897,13 @@
         <v>49.0</v>
       </c>
       <c r="C11" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="D11" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="E11" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="F11" t="n">
         <v>68.5</v>
@@ -906,7 +915,7 @@
         <v>35.63</v>
       </c>
       <c r="I11" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="J11" t="n">
         <v>95.0</v>
@@ -915,28 +924,28 @@
         <v>5.8</v>
       </c>
       <c r="L11" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="M11" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="N11" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="O11" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="P11" t="n">
         <v>68.0</v>
       </c>
       <c r="Q11" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="R11" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="S11" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
     </row>
     <row r="12">
@@ -947,13 +956,13 @@
         <v>49.0</v>
       </c>
       <c r="C12" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="D12" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="E12" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="F12" t="n">
         <v>68.5</v>
@@ -965,7 +974,7 @@
         <v>35.06</v>
       </c>
       <c r="I12" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="J12" t="n">
         <v>102.0</v>
@@ -974,28 +983,28 @@
         <v>5.7</v>
       </c>
       <c r="L12" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="M12" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="N12" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="O12" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="P12" t="n">
         <v>68.0</v>
       </c>
       <c r="Q12" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="R12" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="S12" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
     </row>
     <row r="13">
@@ -1006,13 +1015,13 @@
         <v>56.0</v>
       </c>
       <c r="C13" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D13" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="E13" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="F13" t="n">
         <v>63.75</v>
@@ -1024,7 +1033,7 @@
         <v>31.66</v>
       </c>
       <c r="I13" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="J13" t="n">
         <v>93.0</v>
@@ -1033,28 +1042,28 @@
         <v>6.0</v>
       </c>
       <c r="L13" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="M13" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="N13" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="O13" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P13" t="n">
         <v>68.0</v>
       </c>
       <c r="Q13" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="R13" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="S13" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14">
@@ -1065,13 +1074,13 @@
         <v>56.0</v>
       </c>
       <c r="C14" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D14" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="E14" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="F14" t="n">
         <v>63.75</v>
@@ -1083,7 +1092,7 @@
         <v>31.45</v>
       </c>
       <c r="I14" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="J14" t="n">
         <v>96.0</v>
@@ -1092,28 +1101,28 @@
         <v>5.8</v>
       </c>
       <c r="L14" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="M14" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="N14" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="O14" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P14" t="n">
         <v>68.0</v>
       </c>
       <c r="Q14" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="R14" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="S14" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
     </row>
     <row r="15">
@@ -1124,13 +1133,13 @@
         <v>58.0</v>
       </c>
       <c r="C15" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D15" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="E15" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="F15" t="n">
         <v>65.0</v>
@@ -1142,7 +1151,7 @@
         <v>32.78</v>
       </c>
       <c r="I15" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="J15" t="n">
         <v>89.0</v>
@@ -1151,28 +1160,28 @@
         <v>5.9</v>
       </c>
       <c r="L15" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="M15" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="N15" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="O15" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P15" t="n">
         <v>77.0</v>
       </c>
       <c r="Q15" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="R15" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="S15" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
     </row>
     <row r="16">
@@ -1183,13 +1192,13 @@
         <v>58.0</v>
       </c>
       <c r="C16" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D16" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="E16" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="F16" t="n">
         <v>66.5</v>
@@ -1201,7 +1210,7 @@
         <v>31.19</v>
       </c>
       <c r="I16" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="J16" t="n">
         <v>112.0</v>
@@ -1210,28 +1219,28 @@
         <v>5.9</v>
       </c>
       <c r="L16" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="M16" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="N16" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="O16" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P16" t="n">
         <v>77.0</v>
       </c>
       <c r="Q16" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="R16" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="S16" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
     </row>
     <row r="17">
@@ -1242,13 +1251,13 @@
         <v>60.0</v>
       </c>
       <c r="C17" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D17" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="E17" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="F17" t="n">
         <v>69.5</v>
@@ -1260,7 +1269,7 @@
         <v>32.89</v>
       </c>
       <c r="I17" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="J17" t="n">
         <v>90.0</v>
@@ -1269,28 +1278,28 @@
         <v>5.9</v>
       </c>
       <c r="L17" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="M17" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="N17" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="O17" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="P17" t="n">
         <v>66.0</v>
       </c>
       <c r="Q17" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="R17" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="S17" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
     </row>
     <row r="18">
@@ -1301,13 +1310,13 @@
         <v>60.0</v>
       </c>
       <c r="C18" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D18" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="E18" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="F18" t="n">
         <v>70.0</v>
@@ -1319,7 +1328,7 @@
         <v>33.77</v>
       </c>
       <c r="I18" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="J18" t="n">
         <v>104.0</v>
@@ -1328,28 +1337,28 @@
         <v>6.0</v>
       </c>
       <c r="L18" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="M18" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="N18" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="O18" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="P18" t="n">
         <v>66.0</v>
       </c>
       <c r="Q18" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="R18" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="S18" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
     </row>
     <row r="19">
@@ -1360,55 +1369,55 @@
         <v>61.0</v>
       </c>
       <c r="C19" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D19" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E19" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="F19" t="n">
-        <v>73.0</v>
+        <v>75.0</v>
       </c>
       <c r="G19" t="n">
-        <v>271.0</v>
+        <v>268.4</v>
       </c>
       <c r="H19" t="n">
-        <v>35.75</v>
+        <v>33.54</v>
       </c>
       <c r="I19" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="J19" t="n">
-        <v>128.0</v>
+        <v>116.0</v>
       </c>
       <c r="K19" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="L19" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="M19" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="N19" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="O19" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="P19" t="n">
         <v>60.0</v>
       </c>
       <c r="Q19" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="R19" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="S19" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
     </row>
     <row r="20">
@@ -1416,58 +1425,58 @@
         <v>37</v>
       </c>
       <c r="B20" t="n">
-        <v>62.0</v>
+        <v>61.0</v>
       </c>
       <c r="C20" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D20" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="E20" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="F20" t="n">
-        <v>68.0</v>
+        <v>73.0</v>
       </c>
       <c r="G20" t="n">
-        <v>218.5</v>
+        <v>271.0</v>
       </c>
       <c r="H20" t="n">
-        <v>33.22</v>
+        <v>35.75</v>
       </c>
       <c r="I20" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="J20" t="n">
-        <v>116.0</v>
+        <v>128.0</v>
       </c>
       <c r="K20" t="n">
-        <v>6.1</v>
+        <v>5.7</v>
       </c>
       <c r="L20" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="M20" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="N20" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="O20" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="P20" t="n">
-        <v>72.0</v>
+        <v>60.0</v>
       </c>
       <c r="Q20" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="R20" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="S20" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="21">
@@ -1475,58 +1484,235 @@
         <v>38</v>
       </c>
       <c r="B21" t="n">
+        <v>62.0</v>
+      </c>
+      <c r="C21" t="s">
+        <v>52</v>
+      </c>
+      <c r="D21" t="s">
+        <v>55</v>
+      </c>
+      <c r="E21" t="s">
+        <v>56</v>
+      </c>
+      <c r="F21" t="n">
+        <v>68.0</v>
+      </c>
+      <c r="G21" t="n">
+        <v>209.4</v>
+      </c>
+      <c r="H21" t="n">
+        <v>31.84</v>
+      </c>
+      <c r="I21" t="s">
+        <v>57</v>
+      </c>
+      <c r="J21" t="n">
+        <v>110.0</v>
+      </c>
+      <c r="K21" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="L21" t="s">
+        <v>68</v>
+      </c>
+      <c r="M21" t="s">
+        <v>70</v>
+      </c>
+      <c r="N21" t="s">
+        <v>71</v>
+      </c>
+      <c r="O21" t="s">
+        <v>73</v>
+      </c>
+      <c r="P21" t="n">
+        <v>72.0</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>74</v>
+      </c>
+      <c r="R21" t="s">
+        <v>76</v>
+      </c>
+      <c r="S21" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>39</v>
+      </c>
+      <c r="B22" t="n">
+        <v>62.0</v>
+      </c>
+      <c r="C22" t="s">
+        <v>52</v>
+      </c>
+      <c r="D22" t="s">
+        <v>54</v>
+      </c>
+      <c r="E22" t="s">
+        <v>56</v>
+      </c>
+      <c r="F22" t="n">
+        <v>68.0</v>
+      </c>
+      <c r="G22" t="n">
+        <v>218.5</v>
+      </c>
+      <c r="H22" t="n">
+        <v>33.22</v>
+      </c>
+      <c r="I22" t="s">
+        <v>57</v>
+      </c>
+      <c r="J22" t="n">
+        <v>116.0</v>
+      </c>
+      <c r="K22" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="L22" t="s">
+        <v>68</v>
+      </c>
+      <c r="M22" t="s">
+        <v>70</v>
+      </c>
+      <c r="N22" t="s">
+        <v>71</v>
+      </c>
+      <c r="O22" t="s">
+        <v>73</v>
+      </c>
+      <c r="P22" t="n">
+        <v>72.0</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>74</v>
+      </c>
+      <c r="R22" t="s">
+        <v>76</v>
+      </c>
+      <c r="S22" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>40</v>
+      </c>
+      <c r="B23" t="n">
         <v>64.0</v>
       </c>
-      <c r="C21" t="s">
-        <v>50</v>
-      </c>
-      <c r="D21" t="s">
-        <v>51</v>
-      </c>
-      <c r="E21" t="s">
+      <c r="C23" t="s">
         <v>53</v>
       </c>
-      <c r="F21" t="n">
+      <c r="D23" t="s">
+        <v>55</v>
+      </c>
+      <c r="E23" t="s">
+        <v>56</v>
+      </c>
+      <c r="F23" t="n">
         <v>64.0</v>
       </c>
-      <c r="G21" t="n">
+      <c r="G23" t="n">
+        <v>195.3</v>
+      </c>
+      <c r="H23" t="n">
+        <v>33.52</v>
+      </c>
+      <c r="I23" t="s">
+        <v>57</v>
+      </c>
+      <c r="J23" t="n">
+        <v>110.0</v>
+      </c>
+      <c r="K23" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="L23" t="s">
+        <v>69</v>
+      </c>
+      <c r="M23" t="s">
+        <v>70</v>
+      </c>
+      <c r="N23" t="s">
+        <v>71</v>
+      </c>
+      <c r="O23" t="s">
+        <v>73</v>
+      </c>
+      <c r="P23" t="n">
+        <v>58.0</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>75</v>
+      </c>
+      <c r="R23" t="s">
+        <v>76</v>
+      </c>
+      <c r="S23" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>41</v>
+      </c>
+      <c r="B24" t="n">
+        <v>64.0</v>
+      </c>
+      <c r="C24" t="s">
+        <v>53</v>
+      </c>
+      <c r="D24" t="s">
+        <v>54</v>
+      </c>
+      <c r="E24" t="s">
+        <v>56</v>
+      </c>
+      <c r="F24" t="n">
+        <v>64.0</v>
+      </c>
+      <c r="G24" t="n">
         <v>197.3</v>
       </c>
-      <c r="H21" t="n">
+      <c r="H24" t="n">
         <v>33.86</v>
       </c>
-      <c r="I21" t="s">
-        <v>54</v>
-      </c>
-      <c r="J21" t="n">
+      <c r="I24" t="s">
+        <v>57</v>
+      </c>
+      <c r="J24" t="n">
         <v>107.0</v>
       </c>
-      <c r="K21" t="n">
+      <c r="K24" t="n">
         <v>5.8</v>
       </c>
-      <c r="L21" t="s">
-        <v>66</v>
-      </c>
-      <c r="M21" t="s">
-        <v>67</v>
-      </c>
-      <c r="N21" t="s">
-        <v>68</v>
-      </c>
-      <c r="O21" t="s">
-        <v>70</v>
-      </c>
-      <c r="P21" t="n">
+      <c r="L24" t="s">
+        <v>69</v>
+      </c>
+      <c r="M24" t="s">
+        <v>70</v>
+      </c>
+      <c r="N24" t="s">
+        <v>71</v>
+      </c>
+      <c r="O24" t="s">
+        <v>73</v>
+      </c>
+      <c r="P24" t="n">
         <v>58.0</v>
       </c>
-      <c r="Q21" t="s">
-        <v>72</v>
-      </c>
-      <c r="R21" t="s">
-        <v>73</v>
-      </c>
-      <c r="S21" t="s">
+      <c r="Q24" t="s">
         <v>75</v>
+      </c>
+      <c r="R24" t="s">
+        <v>76</v>
+      </c>
+      <c r="S24" t="s">
+        <v>78</v>
       </c>
     </row>
   </sheetData>
